--- a/data/pca/factorExposure/factorExposure_2018-02-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.005717070763853062</v>
+        <v>-0.01345782052558211</v>
       </c>
       <c r="C2">
-        <v>0.02014399838902686</v>
+        <v>0.02870650814219562</v>
       </c>
       <c r="D2">
-        <v>0.02206671223198849</v>
+        <v>0.02303145219572262</v>
       </c>
       <c r="E2">
-        <v>0.01868515657562144</v>
+        <v>0.01469492411522033</v>
       </c>
       <c r="F2">
-        <v>0.07884089814709955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.01303529973704541</v>
+      </c>
+      <c r="G2">
+        <v>0.01098333865079252</v>
+      </c>
+      <c r="H2">
+        <v>0.04214318523037412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09230111949900595</v>
+        <v>-0.05131979585280594</v>
       </c>
       <c r="C3">
-        <v>0.03655482628894158</v>
+        <v>0.07568184491283184</v>
       </c>
       <c r="D3">
-        <v>-0.00134495660661612</v>
+        <v>0.004778681354298402</v>
       </c>
       <c r="E3">
-        <v>0.09852801321450523</v>
+        <v>0.05977032276063348</v>
       </c>
       <c r="F3">
-        <v>0.297920558547597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.0484080594299948</v>
+      </c>
+      <c r="G3">
+        <v>0.01543634827927814</v>
+      </c>
+      <c r="H3">
+        <v>0.1160817305669927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03980776749755408</v>
+        <v>-0.03500515149139535</v>
       </c>
       <c r="C4">
-        <v>0.0001323682831870044</v>
+        <v>0.06854642883411408</v>
       </c>
       <c r="D4">
-        <v>0.02749845074048005</v>
+        <v>0.01586205736508584</v>
       </c>
       <c r="E4">
-        <v>-0.02572882487500722</v>
+        <v>-0.009767672346716067</v>
       </c>
       <c r="F4">
-        <v>0.06711266184620709</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.02433996202955687</v>
+      </c>
+      <c r="G4">
+        <v>0.04853933293624105</v>
+      </c>
+      <c r="H4">
+        <v>0.05013969745145787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03741938354169819</v>
+        <v>-0.01750605822682156</v>
       </c>
       <c r="C6">
-        <v>0.01101013464035239</v>
+        <v>0.06370334861018061</v>
       </c>
       <c r="D6">
-        <v>0.03894764868778106</v>
+        <v>0.01091936142280633</v>
       </c>
       <c r="E6">
-        <v>-0.02817892411711704</v>
+        <v>-0.0155112461764944</v>
       </c>
       <c r="F6">
-        <v>0.03398172546021443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.0003191430428153643</v>
+      </c>
+      <c r="G6">
+        <v>0.03108361926156014</v>
+      </c>
+      <c r="H6">
+        <v>0.04644520111530188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03971071313788449</v>
+        <v>-0.004908037911612557</v>
       </c>
       <c r="C7">
-        <v>-0.03524230783503635</v>
+        <v>0.038292887983742</v>
       </c>
       <c r="D7">
-        <v>0.01686723493103837</v>
+        <v>0.009807332429418083</v>
       </c>
       <c r="E7">
-        <v>-0.008466571334541912</v>
+        <v>-0.02197632965722849</v>
       </c>
       <c r="F7">
-        <v>0.03362717272327467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04457202565763435</v>
+      </c>
+      <c r="G7">
+        <v>-0.0008109635793707447</v>
+      </c>
+      <c r="H7">
+        <v>0.02364465882485476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01020809747078452</v>
+        <v>0.005201617447032338</v>
       </c>
       <c r="C8">
-        <v>-0.008936434796755603</v>
+        <v>0.005158286619128223</v>
       </c>
       <c r="D8">
-        <v>0.03021764164424248</v>
+        <v>0.001593935751966507</v>
       </c>
       <c r="E8">
-        <v>-0.01894279619543662</v>
+        <v>-0.0002222630252943113</v>
       </c>
       <c r="F8">
-        <v>0.06516373622293337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02108483381628082</v>
+      </c>
+      <c r="G8">
+        <v>0.01531492589594975</v>
+      </c>
+      <c r="H8">
+        <v>0.02400757318848274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03378195759370779</v>
+        <v>-0.01736514986848581</v>
       </c>
       <c r="C9">
-        <v>-0.0009244374486911874</v>
+        <v>0.04823192741430338</v>
       </c>
       <c r="D9">
-        <v>0.02539814854366702</v>
+        <v>0.01122496029044775</v>
       </c>
       <c r="E9">
-        <v>0.003582943077838069</v>
+        <v>-0.007355889561798648</v>
       </c>
       <c r="F9">
-        <v>0.07068931257623734</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01714359056928331</v>
+      </c>
+      <c r="G9">
+        <v>0.01546192252578878</v>
+      </c>
+      <c r="H9">
+        <v>0.04821334281024508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05318961574295648</v>
+        <v>-0.1386039551250958</v>
       </c>
       <c r="C10">
-        <v>0.02129311705444297</v>
+        <v>-0.1423161938246683</v>
       </c>
       <c r="D10">
-        <v>-0.1470519359564297</v>
+        <v>-0.01846659152996947</v>
       </c>
       <c r="E10">
-        <v>0.08035486890102754</v>
+        <v>0.03129680749947569</v>
       </c>
       <c r="F10">
-        <v>0.02342670329665612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.02189053018864498</v>
+      </c>
+      <c r="G10">
+        <v>-0.02982066981621077</v>
+      </c>
+      <c r="H10">
+        <v>-0.004305834357674265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02594505832461614</v>
+        <v>-0.01216677305576747</v>
       </c>
       <c r="C11">
-        <v>0.01277330984214561</v>
+        <v>0.04860131321272762</v>
       </c>
       <c r="D11">
-        <v>0.03872138589156616</v>
+        <v>-0.002081218059681208</v>
       </c>
       <c r="E11">
-        <v>-0.02351394443491431</v>
+        <v>-0.0105318107198553</v>
       </c>
       <c r="F11">
-        <v>0.02751878047539762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.002268613233743293</v>
+      </c>
+      <c r="G11">
+        <v>0.01390675391025751</v>
+      </c>
+      <c r="H11">
+        <v>0.04531156515621337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03770604667928274</v>
+        <v>-0.01650823752623157</v>
       </c>
       <c r="C12">
-        <v>0.01154708323042864</v>
+        <v>0.04610742202436932</v>
       </c>
       <c r="D12">
-        <v>0.03486382481753898</v>
+        <v>0.001802936758199398</v>
       </c>
       <c r="E12">
-        <v>-0.03457056101890392</v>
+        <v>-0.01981751129900631</v>
       </c>
       <c r="F12">
-        <v>0.003143820845895652</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.005810609517124246</v>
+      </c>
+      <c r="G12">
+        <v>0.007732090513532269</v>
+      </c>
+      <c r="H12">
+        <v>0.01891638074392643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008806879831265851</v>
+        <v>-0.01226856998637814</v>
       </c>
       <c r="C13">
-        <v>0.01668855822226359</v>
+        <v>0.02548307839201788</v>
       </c>
       <c r="D13">
-        <v>0.004725467327052717</v>
+        <v>0.02018536749981082</v>
       </c>
       <c r="E13">
-        <v>0.006952598501398476</v>
+        <v>0.01401738042951477</v>
       </c>
       <c r="F13">
-        <v>0.06769564472750754</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0001606239601226784</v>
+      </c>
+      <c r="G13">
+        <v>0.02893705654117405</v>
+      </c>
+      <c r="H13">
+        <v>0.06093706476583198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0227858354799362</v>
+        <v>-0.005582834472831592</v>
       </c>
       <c r="C14">
-        <v>-0.009026350217578085</v>
+        <v>0.02005614378020257</v>
       </c>
       <c r="D14">
-        <v>0.01152455516248325</v>
+        <v>0.005740284690236456</v>
       </c>
       <c r="E14">
-        <v>-0.007753515676062963</v>
+        <v>-0.009395314354374658</v>
       </c>
       <c r="F14">
-        <v>0.04741596216840504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02325155456407424</v>
+      </c>
+      <c r="G14">
+        <v>0.01044455839969152</v>
+      </c>
+      <c r="H14">
+        <v>0.01758525705625906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02611679260532179</v>
+        <v>-0.01321542039387082</v>
       </c>
       <c r="C16">
-        <v>0.01146614035854614</v>
+        <v>0.04184759344930668</v>
       </c>
       <c r="D16">
-        <v>0.04506528541499075</v>
+        <v>-0.00217088475925201</v>
       </c>
       <c r="E16">
-        <v>-0.023065891569588</v>
+        <v>-0.009588598799205216</v>
       </c>
       <c r="F16">
-        <v>0.03722950204843581</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.002584445973843254</v>
+      </c>
+      <c r="G16">
+        <v>0.01324331392228303</v>
+      </c>
+      <c r="H16">
+        <v>0.03422113460420551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03368387699743247</v>
+        <v>-0.01563951809493211</v>
       </c>
       <c r="C19">
-        <v>0.007358547490730782</v>
+        <v>0.04569266536396211</v>
       </c>
       <c r="D19">
-        <v>0.02954232721012988</v>
+        <v>0.009556378294903531</v>
       </c>
       <c r="E19">
-        <v>-0.02973309670528952</v>
+        <v>0.0145261767886145</v>
       </c>
       <c r="F19">
-        <v>0.08802775392277895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02834395090412748</v>
+      </c>
+      <c r="G19">
+        <v>0.03625396697380436</v>
+      </c>
+      <c r="H19">
+        <v>0.05490982514687692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001987577217698828</v>
+        <v>-0.0006607161181957163</v>
       </c>
       <c r="C20">
-        <v>-0.0134129273939293</v>
+        <v>0.0220262649646209</v>
       </c>
       <c r="D20">
-        <v>-0.001199946653276271</v>
+        <v>0.009907216819103776</v>
       </c>
       <c r="E20">
-        <v>-0.001933833113766891</v>
+        <v>0.007587861492455801</v>
       </c>
       <c r="F20">
-        <v>0.04911810028823856</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01944806942209907</v>
+      </c>
+      <c r="G20">
+        <v>0.02066017990016389</v>
+      </c>
+      <c r="H20">
+        <v>0.0290157746652147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02981114078351479</v>
+        <v>-0.005139372223606144</v>
       </c>
       <c r="C21">
-        <v>-0.009276038925164237</v>
+        <v>0.02203455057827255</v>
       </c>
       <c r="D21">
-        <v>0.02485725679165949</v>
+        <v>0.01244771381074201</v>
       </c>
       <c r="E21">
-        <v>-0.008494951147487445</v>
+        <v>0.00728315963098883</v>
       </c>
       <c r="F21">
-        <v>0.03269591068997404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02840665927116406</v>
+      </c>
+      <c r="G21">
+        <v>0.00493074928098289</v>
+      </c>
+      <c r="H21">
+        <v>0.0346399836802264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02302303613686971</v>
+        <v>-0.007764054295983435</v>
       </c>
       <c r="C24">
-        <v>0.0112665951383649</v>
+        <v>0.04052975772231946</v>
       </c>
       <c r="D24">
-        <v>0.02738619195090371</v>
+        <v>0.002997293895765353</v>
       </c>
       <c r="E24">
-        <v>-0.02143282388200926</v>
+        <v>-0.01407574555213105</v>
       </c>
       <c r="F24">
-        <v>0.02353444561810744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.002543385434630262</v>
+      </c>
+      <c r="G24">
+        <v>0.01031214578069579</v>
+      </c>
+      <c r="H24">
+        <v>0.03744216172424385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03328141360941228</v>
+        <v>-0.02243391422242826</v>
       </c>
       <c r="C25">
-        <v>0.01228717977982636</v>
+        <v>0.0497619054086129</v>
       </c>
       <c r="D25">
-        <v>0.03249261281463355</v>
+        <v>0.005878335445593254</v>
       </c>
       <c r="E25">
-        <v>-0.01724489461870566</v>
+        <v>-0.01803677910359198</v>
       </c>
       <c r="F25">
-        <v>0.03501418708479469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.00410055018591176</v>
+      </c>
+      <c r="G25">
+        <v>0.0173121034494577</v>
+      </c>
+      <c r="H25">
+        <v>0.03514893678713051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01103931529702202</v>
+        <v>-0.003417740126970175</v>
       </c>
       <c r="C26">
-        <v>-0.0006338697819278135</v>
+        <v>0.005924213753924934</v>
       </c>
       <c r="D26">
-        <v>0.01326037132595459</v>
+        <v>0.02262771840639086</v>
       </c>
       <c r="E26">
-        <v>0.02043800911135069</v>
+        <v>-0.002133641882306602</v>
       </c>
       <c r="F26">
-        <v>0.04636288694154993</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01102776283452191</v>
+      </c>
+      <c r="G26">
+        <v>-0.0008665705357926165</v>
+      </c>
+      <c r="H26">
+        <v>0.01618950000610647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01593347520533587</v>
+        <v>-0.004588476751884646</v>
       </c>
       <c r="C27">
-        <v>-0.002968220375155467</v>
+        <v>0.003792174325436074</v>
       </c>
       <c r="D27">
-        <v>-0.004258038245545691</v>
+        <v>-0.001305682890597962</v>
       </c>
       <c r="E27">
-        <v>-0.02011949582135295</v>
+        <v>-0.002527317053772421</v>
       </c>
       <c r="F27">
-        <v>0.01581644120430695</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01153757456880622</v>
+      </c>
+      <c r="G27">
+        <v>0.005893958272002575</v>
+      </c>
+      <c r="H27">
+        <v>-0.003709046533752136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.09535638326080863</v>
+        <v>-0.1910398848350132</v>
       </c>
       <c r="C28">
-        <v>0.03228233449311636</v>
+        <v>-0.178762445742933</v>
       </c>
       <c r="D28">
-        <v>-0.2046818138433919</v>
+        <v>-0.01193174966807251</v>
       </c>
       <c r="E28">
-        <v>0.1097547659872798</v>
+        <v>0.02329523320921664</v>
       </c>
       <c r="F28">
-        <v>0.007401545320279131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03406005042835269</v>
+      </c>
+      <c r="G28">
+        <v>-0.03137295787616957</v>
+      </c>
+      <c r="H28">
+        <v>-0.00379860824249676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02445528741537455</v>
+        <v>-0.01024308424908596</v>
       </c>
       <c r="C29">
-        <v>-0.005519974970444408</v>
+        <v>0.01882100289251199</v>
       </c>
       <c r="D29">
-        <v>0.01054912010011736</v>
+        <v>0.004769484743712702</v>
       </c>
       <c r="E29">
-        <v>-0.009166363914091839</v>
+        <v>-0.00737141750167397</v>
       </c>
       <c r="F29">
-        <v>0.04373723124696401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02296572709953596</v>
+      </c>
+      <c r="G29">
+        <v>0.008871257953793272</v>
+      </c>
+      <c r="H29">
+        <v>0.007529156535441488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03186686327160494</v>
+        <v>-0.02216167728040381</v>
       </c>
       <c r="C30">
-        <v>0.05484228377237908</v>
+        <v>0.08646771675999547</v>
       </c>
       <c r="D30">
-        <v>0.05297222333409075</v>
+        <v>0.02017337429641823</v>
       </c>
       <c r="E30">
-        <v>-0.01038828709035848</v>
+        <v>0.004501705039261959</v>
       </c>
       <c r="F30">
-        <v>0.08399679633133257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.02368629140252167</v>
+      </c>
+      <c r="G30">
+        <v>0.04242164837413659</v>
+      </c>
+      <c r="H30">
+        <v>0.0674915198134103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04171634183579249</v>
+        <v>-0.02996696429618946</v>
       </c>
       <c r="C31">
-        <v>0.01399620134532069</v>
+        <v>0.03124234971746649</v>
       </c>
       <c r="D31">
-        <v>0.02205204511941628</v>
+        <v>-0.0002495597674351648</v>
       </c>
       <c r="E31">
-        <v>-0.02263817684656472</v>
+        <v>-0.01393571235187306</v>
       </c>
       <c r="F31">
-        <v>0.03864567573693788</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01046977538546612</v>
+      </c>
+      <c r="G31">
+        <v>-0.0005974522483349725</v>
+      </c>
+      <c r="H31">
+        <v>-0.0006744133306766386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01880614339423143</v>
+        <v>0.002946199402375724</v>
       </c>
       <c r="C32">
-        <v>-0.02631487012169807</v>
+        <v>0.01189941990332562</v>
       </c>
       <c r="D32">
-        <v>0.03999781035121452</v>
+        <v>-0.007917284095582372</v>
       </c>
       <c r="E32">
-        <v>-0.03044312073890261</v>
+        <v>3.757124617294077e-05</v>
       </c>
       <c r="F32">
-        <v>0.05192146921154153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04414359809948513</v>
+      </c>
+      <c r="G32">
+        <v>0.03867385498757808</v>
+      </c>
+      <c r="H32">
+        <v>0.04042753166969226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02789840475578785</v>
+        <v>-0.01370227745800943</v>
       </c>
       <c r="C33">
-        <v>0.03049174589652276</v>
+        <v>0.0460756595537071</v>
       </c>
       <c r="D33">
-        <v>0.04514582192969142</v>
+        <v>0.009813409729877886</v>
       </c>
       <c r="E33">
-        <v>-0.001689721770852116</v>
+        <v>0.009451703939054829</v>
       </c>
       <c r="F33">
-        <v>0.06188019478159912</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.005354424380520759</v>
+      </c>
+      <c r="G33">
+        <v>0.0005634888745705999</v>
+      </c>
+      <c r="H33">
+        <v>0.05013360035947594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0287722509892628</v>
+        <v>-0.02243880022222646</v>
       </c>
       <c r="C34">
-        <v>0.003548014640681581</v>
+        <v>0.05008850570475919</v>
       </c>
       <c r="D34">
-        <v>0.04235630346174998</v>
+        <v>-0.01037046601828341</v>
       </c>
       <c r="E34">
-        <v>-0.03231437986633537</v>
+        <v>-0.02523106942256527</v>
       </c>
       <c r="F34">
-        <v>0.03132658713670342</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.006625489666268451</v>
+      </c>
+      <c r="G34">
+        <v>0.01538864128226369</v>
+      </c>
+      <c r="H34">
+        <v>0.03739149231607133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01706688269563149</v>
+        <v>-0.009705302693901933</v>
       </c>
       <c r="C36">
-        <v>-0.006209780734291496</v>
+        <v>0.004392916774459428</v>
       </c>
       <c r="D36">
-        <v>0.001679159492999663</v>
+        <v>0.009517489488859786</v>
       </c>
       <c r="E36">
-        <v>-0.001801899425033055</v>
+        <v>-0.003218638290661319</v>
       </c>
       <c r="F36">
-        <v>0.02763296733735946</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01427710542541634</v>
+      </c>
+      <c r="G36">
+        <v>-0.001236855849323376</v>
+      </c>
+      <c r="H36">
+        <v>0.01106680050946787</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01402268032380022</v>
+        <v>-0.02609373847893018</v>
       </c>
       <c r="C38">
-        <v>0.00932873943922545</v>
+        <v>0.02161525493387558</v>
       </c>
       <c r="D38">
-        <v>0.0005507915992808472</v>
+        <v>-0.01154764721467169</v>
       </c>
       <c r="E38">
-        <v>0.02672007040227457</v>
+        <v>-0.006621959235695651</v>
       </c>
       <c r="F38">
-        <v>0.04161705729104902</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.001673716665683001</v>
+      </c>
+      <c r="G38">
+        <v>0.009942186315767957</v>
+      </c>
+      <c r="H38">
+        <v>0.02865386449465086</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02041672446062291</v>
+        <v>0.001152251019121263</v>
       </c>
       <c r="C39">
-        <v>0.007999641343467669</v>
+        <v>0.08509876669080978</v>
       </c>
       <c r="D39">
-        <v>0.05327727605680705</v>
+        <v>0.00689253545952567</v>
       </c>
       <c r="E39">
-        <v>-0.01796174649024944</v>
+        <v>-0.01223370783474173</v>
       </c>
       <c r="F39">
-        <v>0.05746989134173673</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.007836900789836556</v>
+      </c>
+      <c r="G39">
+        <v>0.02226285607356322</v>
+      </c>
+      <c r="H39">
+        <v>0.07370529822522515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01294480216000145</v>
+        <v>-0.0181448250059677</v>
       </c>
       <c r="C40">
-        <v>0.03640904771051012</v>
+        <v>0.02667793131072634</v>
       </c>
       <c r="D40">
-        <v>0.02002793083758281</v>
+        <v>0.007493160410517157</v>
       </c>
       <c r="E40">
-        <v>-0.02385905086850744</v>
+        <v>-0.0002803637316531689</v>
       </c>
       <c r="F40">
-        <v>0.0336350830172121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0208140529063683</v>
+      </c>
+      <c r="G40">
+        <v>0.02551512290625539</v>
+      </c>
+      <c r="H40">
+        <v>0.04142256136284859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007327787700747953</v>
+        <v>-0.009822611126065584</v>
       </c>
       <c r="C41">
-        <v>-0.0001941686247796173</v>
+        <v>-0.008539042348965586</v>
       </c>
       <c r="D41">
-        <v>0.002269563796444894</v>
+        <v>0.002904122585976504</v>
       </c>
       <c r="E41">
-        <v>0.01629345932404799</v>
+        <v>-0.003134065526894485</v>
       </c>
       <c r="F41">
-        <v>0.0001898954643859023</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.004251904078876233</v>
+      </c>
+      <c r="G41">
+        <v>-0.01315759184648615</v>
+      </c>
+      <c r="H41">
+        <v>-0.004189324111149599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2226389598227753</v>
+        <v>-0.06772412879079377</v>
       </c>
       <c r="C42">
-        <v>0.2255163026219299</v>
+        <v>0.2058710918811504</v>
       </c>
       <c r="D42">
-        <v>0.4299540288564067</v>
+        <v>0.1152753248765083</v>
       </c>
       <c r="E42">
-        <v>0.7018855181027824</v>
+        <v>0.1322980918888483</v>
       </c>
       <c r="F42">
-        <v>-0.4146271076279004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.2365001558397415</v>
+      </c>
+      <c r="G42">
+        <v>-0.916330054350884</v>
+      </c>
+      <c r="H42">
+        <v>0.08053133725814934</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00871666054879258</v>
+        <v>-0.01111222677601063</v>
       </c>
       <c r="C43">
-        <v>0.002323588176511932</v>
+        <v>-0.004601340707499731</v>
       </c>
       <c r="D43">
-        <v>0.007330165335406594</v>
+        <v>0.003304140218563124</v>
       </c>
       <c r="E43">
-        <v>0.003932706468525528</v>
+        <v>0.00237919880968226</v>
       </c>
       <c r="F43">
-        <v>0.02756662515239376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004646198839218754</v>
+      </c>
+      <c r="G43">
+        <v>-0.006819185902744231</v>
+      </c>
+      <c r="H43">
+        <v>0.004356591665316397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02354139662597564</v>
+        <v>-0.005042720709242316</v>
       </c>
       <c r="C44">
-        <v>-0.01175992743084102</v>
+        <v>0.03973051170930271</v>
       </c>
       <c r="D44">
-        <v>0.02359482561842512</v>
+        <v>0.003128531197351741</v>
       </c>
       <c r="E44">
-        <v>0.02433669900340488</v>
+        <v>0.006109337412875561</v>
       </c>
       <c r="F44">
-        <v>0.08530585928292149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.0270929947396534</v>
+      </c>
+      <c r="G44">
+        <v>-0.0004308052806548532</v>
+      </c>
+      <c r="H44">
+        <v>0.06148931569460414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01635201700800574</v>
+        <v>-0.002156079856843378</v>
       </c>
       <c r="C46">
-        <v>0.001463941395088384</v>
+        <v>0.01242701315867651</v>
       </c>
       <c r="D46">
-        <v>0.03685135611119877</v>
+        <v>0.009974802822726734</v>
       </c>
       <c r="E46">
-        <v>-0.01820057558456679</v>
+        <v>-0.0002604341497290968</v>
       </c>
       <c r="F46">
-        <v>0.07194351633891495</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01293936305799901</v>
+      </c>
+      <c r="G46">
+        <v>0.006480096291655119</v>
+      </c>
+      <c r="H46">
+        <v>0.01145555889198511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07160640028335734</v>
+        <v>-0.05028813353955572</v>
       </c>
       <c r="C47">
-        <v>0.03179406054272667</v>
+        <v>0.06622966304643346</v>
       </c>
       <c r="D47">
-        <v>0.01853878961023312</v>
+        <v>-0.01100682897110941</v>
       </c>
       <c r="E47">
-        <v>-0.03146706066805539</v>
+        <v>-0.01766519810811427</v>
       </c>
       <c r="F47">
-        <v>0.008855544201262146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.007335185369558795</v>
+      </c>
+      <c r="G47">
+        <v>-0.00306250800013245</v>
+      </c>
+      <c r="H47">
+        <v>-0.03570830262464431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01922761917677562</v>
+        <v>-0.01066458537073066</v>
       </c>
       <c r="C48">
-        <v>0.005413911650067827</v>
+        <v>0.01520745476854792</v>
       </c>
       <c r="D48">
-        <v>0.01303519591780931</v>
+        <v>-0.0001426173538265628</v>
       </c>
       <c r="E48">
-        <v>-0.003861268083649824</v>
+        <v>-0.003842799821704143</v>
       </c>
       <c r="F48">
-        <v>0.02876431791036047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.007385815069462985</v>
+      </c>
+      <c r="G48">
+        <v>0.002433431751788877</v>
+      </c>
+      <c r="H48">
+        <v>0.01650120639190412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0786095814922978</v>
+        <v>-0.0538115823497655</v>
       </c>
       <c r="C50">
-        <v>0.006625608035161772</v>
+        <v>0.06177014044034192</v>
       </c>
       <c r="D50">
-        <v>0.03409705136900533</v>
+        <v>-0.009350255700861908</v>
       </c>
       <c r="E50">
-        <v>-0.02456456409684711</v>
+        <v>-0.01770381996052697</v>
       </c>
       <c r="F50">
-        <v>0.02251701898833059</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02869923004303556</v>
+      </c>
+      <c r="G50">
+        <v>-0.008352933981495128</v>
+      </c>
+      <c r="H50">
+        <v>-0.02463037896209047</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01850553687463719</v>
+        <v>-0.01347580674943301</v>
       </c>
       <c r="C51">
-        <v>-0.002819897111653775</v>
+        <v>0.01631887394296207</v>
       </c>
       <c r="D51">
-        <v>-0.01088683256352523</v>
+        <v>0.004686636860426485</v>
       </c>
       <c r="E51">
-        <v>0.01704245466765966</v>
+        <v>-0.008368376268966467</v>
       </c>
       <c r="F51">
-        <v>0.09156600753541033</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01489539098493783</v>
+      </c>
+      <c r="G51">
+        <v>0.009291598844183681</v>
+      </c>
+      <c r="H51">
+        <v>0.0460239307082779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08917315554437159</v>
+        <v>-0.06817056243748171</v>
       </c>
       <c r="C53">
-        <v>0.0346393802507635</v>
+        <v>0.09964848725618203</v>
       </c>
       <c r="D53">
-        <v>0.04670893116839602</v>
+        <v>-0.01337162176783687</v>
       </c>
       <c r="E53">
-        <v>-0.06600225532784196</v>
+        <v>-0.04496364455990119</v>
       </c>
       <c r="F53">
-        <v>-0.02485744148806892</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.002865144443130325</v>
+      </c>
+      <c r="G53">
+        <v>-0.001036889194972849</v>
+      </c>
+      <c r="H53">
+        <v>-0.04184285230267493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02774732377905507</v>
+        <v>-0.02103029188681681</v>
       </c>
       <c r="C54">
-        <v>-0.003967766612427983</v>
+        <v>0.001092033309785056</v>
       </c>
       <c r="D54">
-        <v>-0.007512907759462164</v>
+        <v>-0.006035781851420861</v>
       </c>
       <c r="E54">
-        <v>-0.01022678319956137</v>
+        <v>0.001153351896278674</v>
       </c>
       <c r="F54">
-        <v>0.02840136929234772</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02361734031544446</v>
+      </c>
+      <c r="G54">
+        <v>0.004200016208768572</v>
+      </c>
+      <c r="H54">
+        <v>0.004676733777443907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07566635700623199</v>
+        <v>-0.04800800413223705</v>
       </c>
       <c r="C55">
-        <v>0.02625416986447584</v>
+        <v>0.08879278977627433</v>
       </c>
       <c r="D55">
-        <v>0.05720611364666002</v>
+        <v>-0.01075697816348164</v>
       </c>
       <c r="E55">
-        <v>-0.04521752161788826</v>
+        <v>-0.0333513596756532</v>
       </c>
       <c r="F55">
-        <v>-0.02235725490055948</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.003650132629273959</v>
+      </c>
+      <c r="G55">
+        <v>-0.007650187879214959</v>
+      </c>
+      <c r="H55">
+        <v>-0.04071626688348111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1230279693424654</v>
+        <v>-0.09504093178275017</v>
       </c>
       <c r="C56">
-        <v>0.05687835867513531</v>
+        <v>0.1312920348509424</v>
       </c>
       <c r="D56">
-        <v>0.0456492255867393</v>
+        <v>-0.02330553845470954</v>
       </c>
       <c r="E56">
-        <v>-0.09399841096120178</v>
+        <v>-0.04451819193069126</v>
       </c>
       <c r="F56">
-        <v>-0.05252181825863531</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.007864108902885735</v>
+      </c>
+      <c r="G56">
+        <v>0.006299861000049973</v>
+      </c>
+      <c r="H56">
+        <v>-0.08154413045483543</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0371434507276382</v>
+        <v>-0.02007990899686967</v>
       </c>
       <c r="C57">
-        <v>0.0185494365440199</v>
+        <v>0.02987695323375907</v>
       </c>
       <c r="D57">
-        <v>0.02416877380659245</v>
+        <v>0.02170635483324763</v>
       </c>
       <c r="E57">
-        <v>0.04503826139934302</v>
+        <v>0.02737412472035254</v>
       </c>
       <c r="F57">
-        <v>0.04997941286272665</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02069550846803724</v>
+      </c>
+      <c r="G57">
+        <v>0.006364850428875943</v>
+      </c>
+      <c r="H57">
+        <v>0.06155648986332204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1377067587699983</v>
+        <v>-0.07198551164742015</v>
       </c>
       <c r="C58">
-        <v>0.1803713557299797</v>
+        <v>0.2377240963196074</v>
       </c>
       <c r="D58">
-        <v>0.1806501855493546</v>
+        <v>0.002150122234918491</v>
       </c>
       <c r="E58">
-        <v>0.1375759779077646</v>
+        <v>0.9182197069942384</v>
       </c>
       <c r="F58">
-        <v>0.5870428221154262</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2002423293250935</v>
+      </c>
+      <c r="G58">
+        <v>0.1341105209868408</v>
+      </c>
+      <c r="H58">
+        <v>-0.1010251492036745</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07991331383935492</v>
+        <v>-0.2084749403474285</v>
       </c>
       <c r="C59">
-        <v>0.0518244682743704</v>
+        <v>-0.1627086196186283</v>
       </c>
       <c r="D59">
-        <v>-0.1724056559832698</v>
+        <v>-0.02000453314303762</v>
       </c>
       <c r="E59">
-        <v>0.06541630571159979</v>
+        <v>0.0264160656045077</v>
       </c>
       <c r="F59">
-        <v>0.05038100398092042</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.009343160592679712</v>
+      </c>
+      <c r="G59">
+        <v>0.001636010093206705</v>
+      </c>
+      <c r="H59">
+        <v>0.01592123276154351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1524407673097193</v>
+        <v>-0.2315431909464643</v>
       </c>
       <c r="C60">
-        <v>0.1090398285781731</v>
+        <v>0.1002363746931035</v>
       </c>
       <c r="D60">
-        <v>0.003024883297869056</v>
+        <v>-0.01279808154335197</v>
       </c>
       <c r="E60">
-        <v>0.03264356470240282</v>
+        <v>-0.03780379895049826</v>
       </c>
       <c r="F60">
-        <v>0.1590705589231281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.09501082331906859</v>
+      </c>
+      <c r="G60">
+        <v>0.1258668901444923</v>
+      </c>
+      <c r="H60">
+        <v>0.3762420474621369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02352415177885823</v>
+        <v>-0.009773287375951864</v>
       </c>
       <c r="C61">
-        <v>0.008649361871416511</v>
+        <v>0.06508686403137402</v>
       </c>
       <c r="D61">
-        <v>0.04147259178414729</v>
+        <v>0.0002456643414926779</v>
       </c>
       <c r="E61">
-        <v>-0.01469243075076189</v>
+        <v>-0.01317386004178468</v>
       </c>
       <c r="F61">
-        <v>0.02860119300574032</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.001225822875824151</v>
+      </c>
+      <c r="G61">
+        <v>0.02337083945487929</v>
+      </c>
+      <c r="H61">
+        <v>0.05448533022362755</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0148049273778246</v>
+        <v>-0.007298337803516497</v>
       </c>
       <c r="C63">
-        <v>-0.0004071091326890255</v>
+        <v>0.02215532714822586</v>
       </c>
       <c r="D63">
-        <v>0.01824731828851294</v>
+        <v>0.005517539935149839</v>
       </c>
       <c r="E63">
-        <v>-0.003753870687425081</v>
+        <v>-0.01670455903258549</v>
       </c>
       <c r="F63">
-        <v>0.004942058666681752</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01019899979762792</v>
+      </c>
+      <c r="G63">
+        <v>0.005327960564913585</v>
+      </c>
+      <c r="H63">
+        <v>0.01276236767377372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03914357771058032</v>
+        <v>-0.03184012913813171</v>
       </c>
       <c r="C64">
-        <v>0.001508016765964747</v>
+        <v>0.04423453308484314</v>
       </c>
       <c r="D64">
-        <v>0.02918203594074138</v>
+        <v>-0.0001192134407551967</v>
       </c>
       <c r="E64">
-        <v>-0.02063508921627817</v>
+        <v>-0.02438719991491336</v>
       </c>
       <c r="F64">
-        <v>0.02724060635997774</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.002911823465268927</v>
+      </c>
+      <c r="G64">
+        <v>-0.003373689394264958</v>
+      </c>
+      <c r="H64">
+        <v>0.0333224017310163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04153269183318117</v>
+        <v>-0.03992416434181489</v>
       </c>
       <c r="C65">
-        <v>0.01203844660587033</v>
+        <v>0.0851206747520822</v>
       </c>
       <c r="D65">
-        <v>0.04035577525219934</v>
+        <v>0.009087725068400894</v>
       </c>
       <c r="E65">
-        <v>-0.03449129307832798</v>
+        <v>-0.03528820313817815</v>
       </c>
       <c r="F65">
-        <v>0.02863850439330911</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.01048839133013994</v>
+      </c>
+      <c r="G65">
+        <v>0.04283877919170333</v>
+      </c>
+      <c r="H65">
+        <v>0.05611544673308159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03358737637354393</v>
+        <v>-0.009649448035342338</v>
       </c>
       <c r="C66">
-        <v>0.02304941397730599</v>
+        <v>0.1177823705788641</v>
       </c>
       <c r="D66">
-        <v>0.05985047728309583</v>
+        <v>0.00272502847184076</v>
       </c>
       <c r="E66">
-        <v>-0.05410000865281556</v>
+        <v>-0.01687535784506954</v>
       </c>
       <c r="F66">
-        <v>0.05323060598378198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01443330871352244</v>
+      </c>
+      <c r="G66">
+        <v>0.04943554660989331</v>
+      </c>
+      <c r="H66">
+        <v>0.07602992359241457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02643823275431949</v>
+        <v>-0.05010792276184463</v>
       </c>
       <c r="C67">
-        <v>0.01707622307320436</v>
+        <v>0.03183869885825143</v>
       </c>
       <c r="D67">
-        <v>-0.008479058072507392</v>
+        <v>-0.01191701201068718</v>
       </c>
       <c r="E67">
-        <v>0.01857750062034333</v>
+        <v>-0.0136295456518971</v>
       </c>
       <c r="F67">
-        <v>0.02610864670882634</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.002358772014589478</v>
+      </c>
+      <c r="G67">
+        <v>0.01796708574408108</v>
+      </c>
+      <c r="H67">
+        <v>0.02735004206806365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.09249366655571419</v>
+        <v>-0.2097065539056604</v>
       </c>
       <c r="C68">
-        <v>0.04502254023149367</v>
+        <v>-0.2022926453916568</v>
       </c>
       <c r="D68">
-        <v>-0.2007930428060925</v>
+        <v>0.0001240204949292039</v>
       </c>
       <c r="E68">
-        <v>0.08431328389386804</v>
+        <v>0.03889293650172587</v>
       </c>
       <c r="F68">
-        <v>0.03169654063442937</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02504634563270873</v>
+      </c>
+      <c r="G68">
+        <v>-0.04164268844163223</v>
+      </c>
+      <c r="H68">
+        <v>-0.02949411625441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05995159951274919</v>
+        <v>-0.05272250920863281</v>
       </c>
       <c r="C69">
-        <v>0.02694171949370223</v>
+        <v>0.06235136442355553</v>
       </c>
       <c r="D69">
-        <v>0.01759663386593414</v>
+        <v>-0.01563078527870404</v>
       </c>
       <c r="E69">
-        <v>-0.04018561758118143</v>
+        <v>-0.02984750723252231</v>
       </c>
       <c r="F69">
-        <v>0.01686870498074952</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0004099296486660587</v>
+      </c>
+      <c r="G69">
+        <v>0.01343967450393303</v>
+      </c>
+      <c r="H69">
+        <v>-0.007682714889914871</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08999320780791191</v>
+        <v>-0.1861413995064754</v>
       </c>
       <c r="C71">
-        <v>0.04915112325028517</v>
+        <v>-0.1579556206163999</v>
       </c>
       <c r="D71">
-        <v>-0.1926003265361183</v>
+        <v>-0.00695971884716404</v>
       </c>
       <c r="E71">
-        <v>0.1252538253780505</v>
+        <v>0.04429425659311428</v>
       </c>
       <c r="F71">
-        <v>0.02582967067514555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02428354947842107</v>
+      </c>
+      <c r="G71">
+        <v>-0.04499019526236776</v>
+      </c>
+      <c r="H71">
+        <v>-0.007173942476563549</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0923172030938339</v>
+        <v>-0.05416271663227148</v>
       </c>
       <c r="C72">
-        <v>0.05218440037058267</v>
+        <v>0.1026572521430393</v>
       </c>
       <c r="D72">
-        <v>0.07590665236421476</v>
+        <v>-0.01842690053244649</v>
       </c>
       <c r="E72">
-        <v>-0.08299803238861203</v>
+        <v>-0.04289767914841522</v>
       </c>
       <c r="F72">
-        <v>0.1379737020040507</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02555722924053009</v>
+      </c>
+      <c r="G72">
+        <v>0.06611507559251335</v>
+      </c>
+      <c r="H72">
+        <v>0.08353404690976464</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1794553792520355</v>
+        <v>-0.3036021567257828</v>
       </c>
       <c r="C73">
-        <v>0.1772818018772814</v>
+        <v>0.1544573413477964</v>
       </c>
       <c r="D73">
-        <v>0.02773724267061153</v>
+        <v>-0.01327429683470113</v>
       </c>
       <c r="E73">
-        <v>0.06754440771173077</v>
+        <v>-0.02997116694777605</v>
       </c>
       <c r="F73">
-        <v>0.1758099294415523</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1517672581573683</v>
+      </c>
+      <c r="G73">
+        <v>0.1335391964367465</v>
+      </c>
+      <c r="H73">
+        <v>0.4718281144492944</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1153625324874973</v>
+        <v>-0.09390581569109112</v>
       </c>
       <c r="C74">
-        <v>0.054214822185435</v>
+        <v>0.1361848184527272</v>
       </c>
       <c r="D74">
-        <v>0.04371341947092155</v>
+        <v>-0.02367231926637355</v>
       </c>
       <c r="E74">
-        <v>-0.07642046578474458</v>
+        <v>-0.04778228815345965</v>
       </c>
       <c r="F74">
-        <v>-0.05474800046754451</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.00313094492241446</v>
+      </c>
+      <c r="G74">
+        <v>0.004839784480115861</v>
+      </c>
+      <c r="H74">
+        <v>-0.05790262306108594</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2059741625773113</v>
+        <v>-0.1979473142685682</v>
       </c>
       <c r="C75">
-        <v>0.1139911438148358</v>
+        <v>0.2248394115218308</v>
       </c>
       <c r="D75">
-        <v>0.04698345761064857</v>
+        <v>-0.04888674695650402</v>
       </c>
       <c r="E75">
-        <v>-0.1914790436927704</v>
+        <v>-0.07647120420694337</v>
       </c>
       <c r="F75">
-        <v>-0.07351759312761394</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03026028288595329</v>
+      </c>
+      <c r="G75">
+        <v>0.03053629841846991</v>
+      </c>
+      <c r="H75">
+        <v>-0.1802853803386103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2498936429355724</v>
+        <v>-0.1372355956355791</v>
       </c>
       <c r="C76">
-        <v>0.09332882353458768</v>
+        <v>0.192430437050626</v>
       </c>
       <c r="D76">
-        <v>0.05422663937489622</v>
+        <v>-0.0410651798715253</v>
       </c>
       <c r="E76">
-        <v>-0.2423908719530113</v>
+        <v>-0.0978690838465608</v>
       </c>
       <c r="F76">
-        <v>-0.1513166034704064</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01155617326150125</v>
+      </c>
+      <c r="G76">
+        <v>0.0121768807345494</v>
+      </c>
+      <c r="H76">
+        <v>-0.1506356313221442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08548527308098584</v>
+        <v>-0.04176343327571357</v>
       </c>
       <c r="C77">
-        <v>0.05137959594874355</v>
+        <v>0.08753323129488874</v>
       </c>
       <c r="D77">
-        <v>0.08196894044355474</v>
+        <v>0.007023411632991699</v>
       </c>
       <c r="E77">
-        <v>0.06333424983536065</v>
+        <v>0.02539618322102433</v>
       </c>
       <c r="F77">
-        <v>0.08298297295773943</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01565977222714254</v>
+      </c>
+      <c r="G77">
+        <v>-0.02014819732103927</v>
+      </c>
+      <c r="H77">
+        <v>0.01559717771581754</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04603980977510078</v>
+        <v>-0.02144111736527116</v>
       </c>
       <c r="C78">
-        <v>0.00635938498626687</v>
+        <v>0.07533008622774032</v>
       </c>
       <c r="D78">
-        <v>0.09130368939050899</v>
+        <v>0.001105547892046096</v>
       </c>
       <c r="E78">
-        <v>-0.02186127738794993</v>
+        <v>-0.0001414024222694785</v>
       </c>
       <c r="F78">
-        <v>0.1004563332717823</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01452513274149474</v>
+      </c>
+      <c r="G78">
+        <v>0.02568229705690885</v>
+      </c>
+      <c r="H78">
+        <v>0.08376437881780013</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5337417603396424</v>
+        <v>-0.09386518687911577</v>
       </c>
       <c r="C80">
-        <v>-0.8208634045716109</v>
+        <v>0.1192511924998403</v>
       </c>
       <c r="D80">
-        <v>0.03256049399432637</v>
+        <v>-0.005703434303842825</v>
       </c>
       <c r="E80">
-        <v>0.1027549875430152</v>
+        <v>-0.2052849350692582</v>
       </c>
       <c r="F80">
-        <v>0.02584319846390527</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.9072315305321015</v>
+      </c>
+      <c r="G80">
+        <v>-0.2176360179395992</v>
+      </c>
+      <c r="H80">
+        <v>0.1209814765886124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1627630705948475</v>
+        <v>-0.1199193634553375</v>
       </c>
       <c r="C81">
-        <v>0.07559868503377554</v>
+        <v>0.1440841337709451</v>
       </c>
       <c r="D81">
-        <v>0.02712769535048344</v>
+        <v>-0.02934075476268407</v>
       </c>
       <c r="E81">
-        <v>-0.153976682132832</v>
+        <v>-0.05221274442586554</v>
       </c>
       <c r="F81">
-        <v>-0.05545026154441024</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.001101625389810483</v>
+      </c>
+      <c r="G81">
+        <v>0.01460616182574329</v>
+      </c>
+      <c r="H81">
+        <v>-0.1115241113274874</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.004108715606844413</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.002391818197328015</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0007463989286811416</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01151881741800018</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.003359240479102936</v>
+      </c>
+      <c r="G82">
+        <v>0.001116420176365437</v>
+      </c>
+      <c r="H82">
+        <v>0.001346208290276719</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03330780351386048</v>
+        <v>-0.0221985084619509</v>
       </c>
       <c r="C83">
-        <v>0.02175215640272576</v>
+        <v>0.02138511968817518</v>
       </c>
       <c r="D83">
-        <v>0.02187347783176875</v>
+        <v>0.002646251526294407</v>
       </c>
       <c r="E83">
-        <v>0.0336858857049346</v>
+        <v>0.01581498760573624</v>
       </c>
       <c r="F83">
-        <v>0.04488257663038447</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.007810037476294071</v>
+      </c>
+      <c r="G83">
+        <v>0.0007074694232812187</v>
+      </c>
+      <c r="H83">
+        <v>0.0423092450898221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2269893607606228</v>
+        <v>-0.1886538060673456</v>
       </c>
       <c r="C85">
-        <v>0.1193038450337677</v>
+        <v>0.2229041130472607</v>
       </c>
       <c r="D85">
-        <v>0.06072610990835284</v>
+        <v>-0.03605729230817093</v>
       </c>
       <c r="E85">
-        <v>-0.2179149524697234</v>
+        <v>-0.09964799195040717</v>
       </c>
       <c r="F85">
-        <v>-0.1021965726198392</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.05175092943020375</v>
+      </c>
+      <c r="G85">
+        <v>0.03042634320226681</v>
+      </c>
+      <c r="H85">
+        <v>-0.1281690289794616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0002402901082687985</v>
+        <v>-0.006633979963975385</v>
       </c>
       <c r="C86">
-        <v>-0.003608784946839464</v>
+        <v>0.03744995518493986</v>
       </c>
       <c r="D86">
-        <v>0.04784253875753966</v>
+        <v>0.005734352800478975</v>
       </c>
       <c r="E86">
-        <v>-0.007211745757238868</v>
+        <v>0.002917307300029269</v>
       </c>
       <c r="F86">
-        <v>0.08828032804564434</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01011651806583833</v>
+      </c>
+      <c r="G86">
+        <v>0.002249966919999328</v>
+      </c>
+      <c r="H86">
+        <v>0.06667929282565589</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02669427649651773</v>
+        <v>-0.000833671886818139</v>
       </c>
       <c r="C87">
-        <v>0.007412413268139074</v>
+        <v>0.04059839382977153</v>
       </c>
       <c r="D87">
-        <v>0.03599036274715618</v>
+        <v>0.007785851762351081</v>
       </c>
       <c r="E87">
-        <v>0.009016367849937505</v>
+        <v>0.03759388355855053</v>
       </c>
       <c r="F87">
-        <v>0.100154110493451</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02704579715081759</v>
+      </c>
+      <c r="G87">
+        <v>0.01733305117091326</v>
+      </c>
+      <c r="H87">
+        <v>0.08050402813450913</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.03167759450670134</v>
+        <v>-0.04321333383713193</v>
       </c>
       <c r="C88">
-        <v>0.005232417920383127</v>
+        <v>0.02726517320011296</v>
       </c>
       <c r="D88">
-        <v>-0.002913222830242793</v>
+        <v>0.01649522372548744</v>
       </c>
       <c r="E88">
-        <v>-0.01320955525258084</v>
+        <v>-0.01165899002261533</v>
       </c>
       <c r="F88">
-        <v>-0.00395106441451789</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01562184749972015</v>
+      </c>
+      <c r="G88">
+        <v>0.01264857073198888</v>
+      </c>
+      <c r="H88">
+        <v>-0.006179181459361615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1481256219683463</v>
+        <v>-0.3262317863724142</v>
       </c>
       <c r="C89">
-        <v>0.1080924895573478</v>
+        <v>-0.2846686488932301</v>
       </c>
       <c r="D89">
-        <v>-0.349259971923653</v>
+        <v>-0.01152601469238409</v>
       </c>
       <c r="E89">
-        <v>0.1105184095622632</v>
+        <v>0.03026853024936042</v>
       </c>
       <c r="F89">
-        <v>0.04580261214477063</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.006513568811919383</v>
+      </c>
+      <c r="G89">
+        <v>-0.02597397061494532</v>
+      </c>
+      <c r="H89">
+        <v>-0.02212859177504981</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1170028668929956</v>
+        <v>-0.2717301344892258</v>
       </c>
       <c r="C90">
-        <v>0.05675493784874658</v>
+        <v>-0.2588460675118945</v>
       </c>
       <c r="D90">
-        <v>-0.3246502347312107</v>
+        <v>-0.01170570672971273</v>
       </c>
       <c r="E90">
-        <v>0.1100741667941447</v>
+        <v>0.03944653017315731</v>
       </c>
       <c r="F90">
-        <v>-0.02322700258764423</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.02324753757463159</v>
+      </c>
+      <c r="G90">
+        <v>-0.04946897852440425</v>
+      </c>
+      <c r="H90">
+        <v>-0.05703358141185875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2512440252601928</v>
+        <v>-0.1834089690207859</v>
       </c>
       <c r="C91">
-        <v>0.1461423502661585</v>
+        <v>0.1982127413456548</v>
       </c>
       <c r="D91">
-        <v>0.07332391168254403</v>
+        <v>-0.04438128812724882</v>
       </c>
       <c r="E91">
-        <v>-0.1964701879122881</v>
+        <v>-0.08661246601529242</v>
       </c>
       <c r="F91">
-        <v>-0.1978612768911961</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.03914547408865683</v>
+      </c>
+      <c r="G91">
+        <v>-0.003593800729376909</v>
+      </c>
+      <c r="H91">
+        <v>-0.1854761837876741</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1773499406120887</v>
+        <v>-0.281010298137759</v>
       </c>
       <c r="C92">
-        <v>0.1021097566189652</v>
+        <v>-0.1827735752461497</v>
       </c>
       <c r="D92">
-        <v>-0.3920453585302556</v>
+        <v>-0.05694102025495254</v>
       </c>
       <c r="E92">
-        <v>0.01513100422601076</v>
+        <v>0.04469614269194873</v>
       </c>
       <c r="F92">
-        <v>-0.1199836114990184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.04023630769112801</v>
+      </c>
+      <c r="G92">
+        <v>-0.02233619159869911</v>
+      </c>
+      <c r="H92">
+        <v>-0.1462214815816707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1314042835595121</v>
+        <v>-0.3068181794555606</v>
       </c>
       <c r="C93">
-        <v>0.1145200099582732</v>
+        <v>-0.2470592391869988</v>
       </c>
       <c r="D93">
-        <v>-0.3700743767977832</v>
+        <v>-0.02101805923491464</v>
       </c>
       <c r="E93">
-        <v>0.1714010254091727</v>
+        <v>0.0570218691121902</v>
       </c>
       <c r="F93">
-        <v>-0.02573842655149675</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01301106711237101</v>
+      </c>
+      <c r="G93">
+        <v>-0.04330363066425826</v>
+      </c>
+      <c r="H93">
+        <v>0.0003980718242295085</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.266432878527406</v>
+        <v>-0.2265129006474262</v>
       </c>
       <c r="C94">
-        <v>0.1755230868933803</v>
+        <v>0.2394493948976568</v>
       </c>
       <c r="D94">
-        <v>0.02465316737465791</v>
+        <v>-0.03596434595954384</v>
       </c>
       <c r="E94">
-        <v>-0.2803020217688214</v>
+        <v>-0.1161733870254794</v>
       </c>
       <c r="F94">
-        <v>-0.07228545682098592</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.07882107740375953</v>
+      </c>
+      <c r="G94">
+        <v>0.08762401236669086</v>
+      </c>
+      <c r="H94">
+        <v>-0.4686863101289396</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.03200805483549176</v>
+        <v>-0.03980800201789837</v>
       </c>
       <c r="C95">
-        <v>0.1066217345256738</v>
+        <v>0.1090364680052664</v>
       </c>
       <c r="D95">
-        <v>0.04378850048369561</v>
+        <v>-0.01479929350877999</v>
       </c>
       <c r="E95">
-        <v>-0.0237187476629003</v>
+        <v>0.0405162016398755</v>
       </c>
       <c r="F95">
-        <v>0.0326021344679636</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.08228092871112916</v>
+      </c>
+      <c r="G95">
+        <v>0.01984710210708445</v>
+      </c>
+      <c r="H95">
+        <v>0.06190647558502784</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1558352835332437</v>
+        <v>-0.1850891478239698</v>
       </c>
       <c r="C98">
-        <v>0.1245065524975111</v>
+        <v>0.07347013523409829</v>
       </c>
       <c r="D98">
-        <v>-0.009656951505606127</v>
+        <v>-0.03326462419581357</v>
       </c>
       <c r="E98">
-        <v>0.09111888138871053</v>
+        <v>0.02381354412295816</v>
       </c>
       <c r="F98">
-        <v>0.1505663810312007</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.06652108523954994</v>
+      </c>
+      <c r="G98">
+        <v>0.04635859761442453</v>
+      </c>
+      <c r="H98">
+        <v>0.3223748902090018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.008231720848123186</v>
+        <v>-0.004138367351243364</v>
       </c>
       <c r="C101">
-        <v>-0.007536154320401105</v>
+        <v>0.02014799803428608</v>
       </c>
       <c r="D101">
-        <v>0.0315500637105489</v>
+        <v>0.005727005205378949</v>
       </c>
       <c r="E101">
-        <v>0.009759530845282865</v>
+        <v>0.0311976255410341</v>
       </c>
       <c r="F101">
-        <v>0.1836812772190924</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03548972120243323</v>
+      </c>
+      <c r="G101">
+        <v>0.0255017732771002</v>
+      </c>
+      <c r="H101">
+        <v>0.00808123012458861</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1105777527215821</v>
+        <v>-0.09750391160015749</v>
       </c>
       <c r="C102">
-        <v>0.05726966051424077</v>
+        <v>0.1088617751404709</v>
       </c>
       <c r="D102">
-        <v>0.02939622702474753</v>
+        <v>-0.01110574050011362</v>
       </c>
       <c r="E102">
-        <v>-0.1062905405470356</v>
+        <v>-0.05471949058035504</v>
       </c>
       <c r="F102">
-        <v>-0.06919596247273098</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.02337795617523546</v>
+      </c>
+      <c r="G102">
+        <v>0.01780739555720673</v>
+      </c>
+      <c r="H102">
+        <v>-0.06974290182899184</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04003430844630428</v>
+        <v>-0.009578306574346164</v>
       </c>
       <c r="C103">
-        <v>0.002812808525007597</v>
+        <v>0.01446746326524898</v>
       </c>
       <c r="D103">
-        <v>0.01522156703026842</v>
+        <v>-0.001610420387077188</v>
       </c>
       <c r="E103">
-        <v>-0.0405870879682381</v>
+        <v>-0.005073226512768698</v>
       </c>
       <c r="F103">
-        <v>0.007832593558491311</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01548120185867653</v>
+      </c>
+      <c r="G103">
+        <v>0.001285694105191531</v>
+      </c>
+      <c r="H103">
+        <v>-0.009871806336343403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.09548042246712292</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.003852782585249787</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9815303174373415</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04016456892206924</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.0183234532484349</v>
+      </c>
+      <c r="G104">
+        <v>0.1108029048075443</v>
+      </c>
+      <c r="H104">
+        <v>-0.06021837966525873</v>
       </c>
     </row>
   </sheetData>
